--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/10/seed3/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.318899999999997</v>
+        <v>-7.329199999999991</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.50159999999997</v>
+        <v>-20.44649999999997</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.48290000000003</v>
+        <v>-22.54920000000002</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.48239999999999</v>
+        <v>-12.75289999999999</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.45990000000003</v>
+        <v>-22.50890000000002</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.6317</v>
+        <v>-8.575699999999994</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
